--- a/DATOS_PRUEBA.xlsx
+++ b/DATOS_PRUEBA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIVERSIDAD DE CATALUÑA\JUPYTER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crrb\Documents\GitHub\DIPLOM_BIGDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE76467F-03B3-450E-8462-1009FC0DA043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C9726-450E-4EEB-9556-6F4A0EDCEA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A831" workbookViewId="0">
+      <selection activeCell="C863" sqref="C863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5861,15 +5861,10 @@
       <c r="A389" t="s">
         <v>5</v>
       </c>
-      <c r="B389">
-        <v>96</v>
-      </c>
       <c r="C389">
         <v>96.49</v>
       </c>
-      <c r="D389" s="1">
-        <v>44456.861168981479</v>
-      </c>
+      <c r="D389" s="1"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
@@ -6382,9 +6377,6 @@
       <c r="B426">
         <v>20</v>
       </c>
-      <c r="C426">
-        <v>20.16</v>
-      </c>
       <c r="D426" s="1">
         <v>44461.364849537036</v>
       </c>
@@ -7194,9 +7186,6 @@
       <c r="B484">
         <v>100</v>
       </c>
-      <c r="C484">
-        <v>99.66</v>
-      </c>
       <c r="D484" s="1">
         <v>44468.424675925926</v>
       </c>
@@ -7600,9 +7589,6 @@
       <c r="B513">
         <v>55</v>
       </c>
-      <c r="C513">
-        <v>54.93</v>
-      </c>
       <c r="D513" s="1">
         <v>44471.954594907409</v>
       </c>
@@ -8314,9 +8300,6 @@
       <c r="B564">
         <v>87</v>
       </c>
-      <c r="C564">
-        <v>87.39</v>
-      </c>
       <c r="D564" s="1">
         <v>44478.162372685183</v>
       </c>
@@ -9263,9 +9246,6 @@
       <c r="A632" t="s">
         <v>6</v>
       </c>
-      <c r="B632">
-        <v>71</v>
-      </c>
       <c r="C632">
         <v>70.73</v>
       </c>
@@ -9767,9 +9747,6 @@
       <c r="A668" t="s">
         <v>7</v>
       </c>
-      <c r="B668">
-        <v>39</v>
-      </c>
       <c r="C668">
         <v>39.200000000000003</v>
       </c>
@@ -10904,9 +10881,6 @@
       <c r="B749">
         <v>79</v>
       </c>
-      <c r="C749">
-        <v>78.61</v>
-      </c>
       <c r="D749" s="1">
         <v>44500.680775462963</v>
       </c>
@@ -12119,12 +12093,6 @@
       <c r="A836" t="s">
         <v>11</v>
       </c>
-      <c r="B836">
-        <v>95</v>
-      </c>
-      <c r="C836">
-        <v>94.62</v>
-      </c>
       <c r="D836" s="1">
         <v>44511.270509259259</v>
       </c>
@@ -12496,12 +12464,6 @@
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>5</v>
-      </c>
-      <c r="B863">
-        <v>66</v>
-      </c>
-      <c r="C863">
-        <v>66.22</v>
       </c>
       <c r="D863" s="1">
         <v>44514.556979166664</v>
